--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-07T20:15:41+02:00</t>
+    <t>2025-05-07T21:31:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-07T21:31:29+02:00</t>
+    <t>2025-05-12T20:06:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>Distal (qualifier value)</t>
+  </si>
+  <si>
+    <t>119567009</t>
+  </si>
+  <si>
+    <t>Structure of artery of head (body structure)</t>
   </si>
   <si>
     <t>System URI</t>
@@ -427,7 +433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -527,18 +533,26 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>49</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T20:06:16+02:00</t>
+    <t>2025-05-13T19:16:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T19:16:00+02:00</t>
+    <t>2025-05-14T23:21:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:21:35+02:00</t>
+    <t>2025-05-14T23:43:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/ValueSet-Anatomical-Terminology.xlsx
+++ b/docs/ValueSet-Anatomical-Terminology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:43:24+02:00</t>
+    <t>2025-05-19T18:20:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/medinterop-renner/TraumaIG, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
